--- a/excelTemplate/LogisticsShipmentListTemplate.xlsx
+++ b/excelTemplate/LogisticsShipmentListTemplate.xlsx
@@ -184,9 +184,6 @@
     <t>&lt;%=rs1.shipment_list_out_date%&gt;</t>
   </si>
   <si>
-    <t>&lt;%=rs1.shipment_list_vendor%&gt;</t>
-  </si>
-  <si>
     <t>&lt;%=rs1.shipment_list_remark%&gt;</t>
   </si>
   <si>
@@ -218,11 +215,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;%=rs1.shipment_list_vendor%&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;%=rs1.shipment_list_remark%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.shipment_list_vendor_name%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.shipment_list_vendor_name%&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -695,7 +696,7 @@
     <col min="24" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="66" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -736,7 +737,7 @@
         <v>23</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O1" s="11" t="s">
         <v>3</v>
@@ -807,10 +808,10 @@
         <v>40</v>
       </c>
       <c r="R2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="S2" s="12" t="s">
         <v>41</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -848,7 +849,7 @@
     <col min="16" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="82.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="49.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -897,10 +898,10 @@
     </row>
     <row r="2" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>27</v>
@@ -924,22 +925,22 @@
         <v>34</v>
       </c>
       <c r="J2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="L2" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="M2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="N2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="12" t="s">
         <v>49</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/excelTemplate/LogisticsShipmentListTemplate.xlsx
+++ b/excelTemplate/LogisticsShipmentListTemplate.xlsx
@@ -144,10 +144,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;%=rs1.shipment_list_port_of_discharge%&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;%=rs1.shipment_list_in_date%&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -224,6 +220,10 @@
   </si>
   <si>
     <t>&lt;%=rs1.shipment_list_vendor_name%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.shipment_list_port_of_destination%&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -670,7 +670,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -737,7 +737,7 @@
         <v>23</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O1" s="11" t="s">
         <v>3</v>
@@ -772,46 +772,46 @@
         <v>29</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="K2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="L2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="14" t="s">
+      <c r="N2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="O2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="P2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="Q2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="R2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -826,7 +826,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -898,10 +898,10 @@
     </row>
     <row r="2" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>43</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>44</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>27</v>
@@ -910,37 +910,37 @@
         <v>28</v>
       </c>
       <c r="E2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="I2" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="15" t="s">
-        <v>34</v>
-      </c>
       <c r="J2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="L2" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="M2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="N2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/excelTemplate/LogisticsShipmentListTemplate.xlsx
+++ b/excelTemplate/LogisticsShipmentListTemplate.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
   <si>
     <t>CONTAINER#</t>
   </si>
@@ -61,10 +61,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>EMPTY RETURN DATE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>POD</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -225,6 +221,14 @@
   <si>
     <t>&lt;%=rs1.shipment_list_port_of_destination%&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GATA OUT DATE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOADING DATE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -670,7 +674,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -701,7 +705,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>9</v>
@@ -710,13 +714,13 @@
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>1</v>
@@ -725,7 +729,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K1" s="9" t="s">
         <v>8</v>
@@ -734,19 +738,19 @@
         <v>2</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O1" s="11" t="s">
         <v>3</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="R1" s="9" t="s">
         <v>4</v>
@@ -757,61 +761,61 @@
     </row>
     <row r="2" spans="1:19" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="K2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="L2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="14" t="s">
+      <c r="N2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="O2" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="P2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="Q2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="R2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" s="12" t="s">
         <v>39</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -851,10 +855,10 @@
   <sheetData>
     <row r="1" spans="1:15" ht="49.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>9</v>
@@ -863,34 +867,34 @@
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="11" t="s">
-        <v>19</v>
-      </c>
       <c r="L1" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>5</v>
@@ -898,49 +902,49 @@
     </row>
     <row r="2" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="12" t="s">
+      <c r="K2" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="L2" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="M2" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="N2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" s="12" t="s">
         <v>47</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/excelTemplate/LogisticsShipmentListTemplate.xlsx
+++ b/excelTemplate/LogisticsShipmentListTemplate.xlsx
@@ -376,19 +376,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -759,7 +759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>24</v>
       </c>
@@ -830,7 +830,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/excelTemplate/LogisticsShipmentListTemplate.xlsx
+++ b/excelTemplate/LogisticsShipmentListTemplate.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\zt\zhongtan-server\excelTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liudong/workspace/xiangmeng/git/zhongtan/zhongtan-server/excelTemplate/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A7A1B3-DF14-4C43-A41D-4D707588C5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-100" yWindow="760" windowWidth="24140" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transit" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
   <si>
     <t>CONTAINER#</t>
   </si>
@@ -176,38 +177,35 @@
     <t>&lt;%=rs1.shipment_list_out_date%&gt;</t>
   </si>
   <si>
+    <t>BORDER RELEASE DATE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%forRow rs1,i in _data_[1]%&gt;&lt;%=rs1.shipment_list_bill_no%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.shipment_list_cntr_owner%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.shipment_list_truck_plate%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.shipment_list_ata_destination%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.shipment_list_delivery_date%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.shipment_list_out_date%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>&lt;%=rs1.shipment_list_remark%&gt;</t>
-  </si>
-  <si>
-    <t>BORDER RELEASE DATE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%forRow rs1,i in _data_[1]%&gt;&lt;%=rs1.shipment_list_bill_no%&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.shipment_list_cntr_owner%&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.shipment_list_truck_plate%&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.shipment_list_ata_destination%&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.shipment_list_delivery_date%&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.shipment_list_out_date%&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.shipment_list_remark%&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -229,18 +227,58 @@
   <si>
     <t>LOADING DATE</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VESSEL NAME</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VESSEL VOYAGE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPORTER NAME</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONSIGNEE NAME</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOTIFY NAME</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.shipment_list_vessel_name%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.shipment_list_vessel_voyage%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.shipment_list_notify_name%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.shipment_list_consignee_name%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.shipment_list_exporter_name%&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,7 +431,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规_Cargo Tracing report1" xfId="1"/>
+    <cellStyle name="常规_Cargo Tracing report1" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -670,37 +708,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="24.25" style="1" customWidth="1"/>
-    <col min="2" max="3" width="7.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.25" style="6" customWidth="1"/>
-    <col min="8" max="8" width="10.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="15" style="7" customWidth="1"/>
-    <col min="10" max="10" width="15.625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" style="7" customWidth="1"/>
     <col min="11" max="11" width="12" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" style="6" customWidth="1"/>
     <col min="13" max="13" width="13.5" style="7" customWidth="1"/>
-    <col min="14" max="14" width="17.375" style="7" customWidth="1"/>
-    <col min="15" max="15" width="15.625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="19.125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="18.25" style="6" customWidth="1"/>
-    <col min="18" max="18" width="14.75" style="1" customWidth="1"/>
-    <col min="19" max="23" width="17.625" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.75" style="1"/>
+    <col min="14" max="14" width="17.33203125" style="7" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.1640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18.1640625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="17.6640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="31.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="33.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="34.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="31.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="45">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -720,7 +761,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>1</v>
@@ -741,7 +782,7 @@
         <v>22</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O1" s="11" t="s">
         <v>3</v>
@@ -750,7 +791,7 @@
         <v>11</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R1" s="9" t="s">
         <v>4</v>
@@ -758,8 +799,23 @@
       <c r="S1" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="T1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" s="4" customFormat="1" ht="24.75" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>24</v>
       </c>
@@ -776,7 +832,7 @@
         <v>28</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>29</v>
@@ -812,10 +868,25 @@
         <v>38</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S2" s="12" t="s">
-        <v>39</v>
+        <v>46</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -826,34 +897,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="18" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.25" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.25" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.25" style="2" customWidth="1"/>
-    <col min="11" max="11" width="15.375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="18.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="18.1640625" style="2" customWidth="1"/>
     <col min="13" max="13" width="19" style="2" customWidth="1"/>
-    <col min="14" max="14" width="16.75" style="2" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" style="2" customWidth="1"/>
     <col min="15" max="15" width="17" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="8.75" style="2"/>
+    <col min="16" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="49.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="45">
       <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
@@ -900,12 +971,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="22.5" customHeight="1">
       <c r="A2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>41</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>42</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>26</v>
@@ -914,7 +985,7 @@
         <v>27</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>29</v>
@@ -929,22 +1000,22 @@
         <v>32</v>
       </c>
       <c r="J2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="L2" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="M2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="N2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="12" t="s">
         <v>46</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
